--- a/survey_update.xlsx
+++ b/survey_update.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\HASTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AAF602-ECCD-4011-A00F-38B7AF41D6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098B6E57-AFC3-4424-956D-C2CE3ED374A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="participants" sheetId="1" r:id="rId1"/>
@@ -507,12 +507,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -565,39 +561,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
@@ -606,62 +577,122 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -949,431 +980,433 @@
   </sheetPr>
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="14" width="17.28515625" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" customWidth="1"/>
-    <col min="16" max="16" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.7109375" style="23" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="23" customWidth="1"/>
+    <col min="8" max="14" width="17.28515625" style="23" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="23" customWidth="1"/>
+    <col min="16" max="16" width="19.140625" style="23" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="39" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="53" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>11893</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>3526</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <f>D2+E2</f>
         <v>15419</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>7.76</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <v>29.92</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="8">
         <v>1057.83</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="8">
         <v>1030.02</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="8">
         <v>26584.95</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="9">
+      <c r="P2" s="8">
         <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>4978</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>1618</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="13">
         <f t="shared" ref="F3:F8" si="0">D3+E3</f>
         <v>6596</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>6.79</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>10.75</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <v>355.6</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="8">
         <v>328.7</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="8">
         <v>18422.98</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="8">
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>2387</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>1718</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <f t="shared" si="0"/>
         <v>4105</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>8.3800000000000008</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>8.52</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <v>686.56</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="8">
         <v>641.97</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="8">
         <v>13112.98</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="8">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>30334</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>3370</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <f t="shared" si="0"/>
         <v>33704</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>15</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>5.47</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <v>392.14</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="8">
         <v>309.35000000000002</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="8">
         <v>7227.16</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="8">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>37917</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>4213</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="13">
         <f t="shared" si="0"/>
         <v>42130</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>13</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>126.69</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="8">
         <v>2742.35</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="8">
         <v>1989.06</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="8">
         <v>51315</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="8">
         <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>14590</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>80642</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="13">
         <f t="shared" si="0"/>
         <v>95232</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>15.73</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>2.94</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="8">
         <v>31.24</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="8">
         <v>2.21</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="8">
         <v>16236.11</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="8">
         <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>2489</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>8113</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="13">
         <f t="shared" si="0"/>
         <v>10602</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>14.2</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>25.96</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="8">
         <v>34.200000000000003</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="8">
         <v>14.71</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="8">
         <v>6534.16</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="8">
         <v>80</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="y84kFGFuat/yba8Dq1zjO9Bp0u7PmnAYSStmdBipVNuHLffoS6bWD01R8etS2+5gGanG/3d5+Y0fHbBcHjBDWg==" saltValue="51nAXE57IEqQ0yfGp00p+g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1383,97 +1416,97 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B555A4F-9024-4F2D-9FC9-EDDDEDB26B9B}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="23"/>
+    <col min="2" max="2" width="39.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="39" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A2" s="22">
+      <c r="A2" s="41">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="25">
         <v>98.75</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="24" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A3" s="22">
+      <c r="A3" s="41">
         <v>2</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="25">
         <v>100</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="24" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A4" s="22">
+      <c r="A4" s="41">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="25">
         <v>98.3</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="24" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A5" s="22">
+      <c r="A5" s="41">
         <v>4</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="16">
         <v>93.7</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="26" t="s">
@@ -1481,16 +1514,16 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A6" s="22">
+      <c r="A6" s="41">
         <v>5</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="16">
         <v>99.9</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="26" t="s">
@@ -1498,16 +1531,16 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A7" s="22">
+      <c r="A7" s="41">
         <v>6</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="18">
         <v>98.3</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="26" t="s">
@@ -1515,16 +1548,16 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A8" s="22">
+      <c r="A8" s="41">
         <v>7</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="27">
         <v>0</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="17" t="s">
         <v>84</v>
       </c>
       <c r="E8" s="26" t="s">
@@ -1532,16 +1565,16 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A9" s="22">
+      <c r="A9" s="41">
         <v>8</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="27">
         <v>0</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="17" t="s">
         <v>72</v>
       </c>
       <c r="E9" s="26" t="s">
@@ -1549,16 +1582,16 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="34.5" x14ac:dyDescent="0.4">
-      <c r="A10" s="22">
+      <c r="A10" s="41">
         <v>9</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="27">
         <v>0</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="17" t="s">
         <v>73</v>
       </c>
       <c r="E10" s="26" t="s">
@@ -1566,16 +1599,16 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A11" s="22">
+      <c r="A11" s="41">
         <v>10</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="16">
         <v>98.7</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="26" t="s">
@@ -1583,16 +1616,16 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A12" s="22">
+      <c r="A12" s="41">
         <v>11</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="16">
         <v>99.5</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="26" t="s">
@@ -1600,16 +1633,16 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A13" s="22">
+      <c r="A13" s="41">
         <v>12</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="16">
         <v>99.9</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="26" t="s">
@@ -1617,16 +1650,16 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="34.5" x14ac:dyDescent="0.4">
-      <c r="A14" s="22">
+      <c r="A14" s="41">
         <v>13</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="16">
         <v>31.4</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="26" t="s">
@@ -1634,16 +1667,16 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A15" s="22">
+      <c r="A15" s="41">
         <v>14</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="16">
         <v>49.5</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="26" t="s">
@@ -1651,16 +1684,16 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="34.5" x14ac:dyDescent="0.4">
-      <c r="A16" s="22">
+      <c r="A16" s="41">
         <v>15</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="16">
         <v>22.8</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="26" t="s">
@@ -1668,16 +1701,16 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A17" s="22">
+      <c r="A17" s="41">
         <v>16</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="16">
         <v>12</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="26" t="s">
@@ -1685,16 +1718,16 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A18" s="22">
+      <c r="A18" s="41">
         <v>17</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="16">
         <v>52.1</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="26" t="s">
@@ -1702,16 +1735,16 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A19" s="22">
+      <c r="A19" s="41">
         <v>18</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="16">
         <v>31.4</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="26" t="s">
@@ -1719,227 +1752,228 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A20" s="22">
+      <c r="A20" s="41">
         <v>19</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="48">
+      <c r="C20" s="28">
         <v>139879</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="46" t="s">
+      <c r="E20" s="29" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A21" s="22">
+      <c r="A21" s="41">
         <v>20</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="30">
         <v>40162</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="E21" s="31" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A22" s="22">
+      <c r="A22" s="41">
         <v>21</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="30">
         <v>99717</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="31" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A23" s="22">
+      <c r="A23" s="41">
         <v>22</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="40">
+      <c r="C23" s="32">
         <v>15</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="38" t="s">
+      <c r="E23" s="33" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A24" s="22">
+      <c r="A24" s="41">
         <v>23</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="48">
+      <c r="C24" s="28">
         <v>34045</v>
       </c>
-      <c r="D24" s="49" t="s">
+      <c r="D24" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="46" t="s">
+      <c r="E24" s="29" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A25" s="22">
+      <c r="A25" s="41">
         <v>24</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="44">
+      <c r="C25" s="34">
         <v>23083</v>
       </c>
-      <c r="D25" s="45" t="s">
+      <c r="D25" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="42" t="s">
+      <c r="E25" s="35" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A26" s="22">
+      <c r="A26" s="41">
         <v>25</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="44">
+      <c r="C26" s="34">
         <v>10962</v>
       </c>
-      <c r="D26" s="45" t="s">
+      <c r="D26" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="42" t="s">
+      <c r="E26" s="35" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A27" s="22">
+      <c r="A27" s="41">
         <v>26</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="48">
+      <c r="C27" s="28">
         <v>105834</v>
       </c>
-      <c r="D27" s="49" t="s">
+      <c r="D27" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="46" t="s">
+      <c r="E27" s="29" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A28" s="22">
+      <c r="A28" s="41">
         <v>27</v>
       </c>
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="44">
+      <c r="C28" s="34">
         <v>17079</v>
       </c>
-      <c r="D28" s="45" t="s">
+      <c r="D28" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="42" t="s">
+      <c r="E28" s="35" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A29" s="22">
+      <c r="A29" s="41">
         <v>28</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="44">
+      <c r="C29" s="34">
         <v>88755</v>
       </c>
-      <c r="D29" s="45" t="s">
+      <c r="D29" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="42" t="s">
+      <c r="E29" s="35" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A30" s="22">
+      <c r="A30" s="41">
         <v>29</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="36">
         <v>0</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="37" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A31" s="22">
+      <c r="A31" s="41">
         <v>30</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="36">
         <v>0</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="37" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A32" s="22">
+      <c r="A32" s="41">
         <v>31</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="36">
         <v>0</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="37" t="s">
         <v>80</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="FZFMoZhXZYsnD4OQf+7bhPJvgE9brVlGHJ9cNbx0nNpvdwWhQl2mk3LWyd2xU8kA0c8QfkFMHWl0dEshqJ72Yg==" saltValue="6DYYWfCJiEPvOnZanb9/Sg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1962,7 +1996,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B1" t="s">
@@ -1970,7 +2004,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B2" t="s">
@@ -1978,7 +2012,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
@@ -1986,7 +2020,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
@@ -1994,7 +2028,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
@@ -2002,7 +2036,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>40</v>
       </c>
       <c r="B6" t="s">
@@ -2010,7 +2044,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B7" t="s">
@@ -2018,7 +2052,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
@@ -2026,7 +2060,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B9" t="s">
@@ -2034,7 +2068,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
@@ -2042,7 +2076,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B11" t="s">
@@ -2050,7 +2084,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
@@ -2058,7 +2092,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B13" t="s">
@@ -2066,7 +2100,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B14" t="s">
@@ -2074,7 +2108,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B15" t="s">
